--- a/documentation/code-creation.xlsx
+++ b/documentation/code-creation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\p\d\stoxs\ml\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE42C5EF-FF82-4CF3-B7BD-C17CC82149D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A4DC24-19A6-4203-8735-A220A4CC33CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{7E432F07-B997-4218-A7C6-A9FFD8B1C0C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7E432F07-B997-4218-A7C6-A9FFD8B1C0C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Permission" sheetId="2" r:id="rId1"/>
@@ -355,10 +355,10 @@
     <tableColumn id="6" xr3:uid="{A4E0A009-7399-4AC4-AA96-41F24CC89EFA}" name="level-5"/>
     <tableColumn id="7" xr3:uid="{D8CA6990-4944-4889-A8EC-B0DED65FFB3E}" name="level-6"/>
     <tableColumn id="11" xr3:uid="{40C5AB9D-EE2C-4325-8986-97DAD591EED9}" name="default"/>
-    <tableColumn id="8" xr3:uid="{419257CA-4059-4B32-8B6D-C7E2C13200BD}" name="result" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{419257CA-4059-4B32-8B6D-C7E2C13200BD}" name="result" dataDxfId="1">
       <calculatedColumnFormula>"    "&amp;security[[#This Row],[string]]&amp;" = os.environ.get('"&amp;security[[#This Row],[string]]&amp;"', '"&amp;security[[#This Row],[default]]&amp;"')"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3AD1F528-ED84-4E28-96B7-86E0A735E262}" name="string" dataDxfId="1">
+    <tableColumn id="10" xr3:uid="{3AD1F528-ED84-4E28-96B7-86E0A735E262}" name="string" dataDxfId="0">
       <calculatedColumnFormula>UPPER(security[[#This Row],[level-0]])&amp;security[[#This Row],[u-1]]&amp;security[[#This Row],[x-1]]&amp;security[[#This Row],[u-2]]&amp;security[[#This Row],[x-2]]&amp;security[[#This Row],[u-3]]&amp;security[[#This Row],[x-3]]&amp;security[[#This Row],[u-4]]&amp;security[[#This Row],[x-4]]&amp;security[[#This Row],[u-5]]&amp;security[[#This Row],[x-5]]&amp;security[[#This Row],[u-6]]&amp;security[[#This Row],[x-6]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{E06EA6F5-810E-452C-83F1-27CF738719AC}" name="u-1">
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C97185A-0833-4CE0-A88E-C243321E50F3}">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:Z16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2127,8 +2127,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E110C49B-E971-4950-A009-0E58893C8A4F}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
